--- a/output/results.xlsx
+++ b/output/results.xlsx
@@ -2435,7 +2435,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -2459,10 +2459,10 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -2585,16 +2585,16 @@
         <v>0</v>
       </c>
       <c r="BD6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE6" t="n">
         <v>0</v>
       </c>
       <c r="BF6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH6" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="BJ6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK6" t="n">
         <v>0</v>
@@ -2615,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="BN6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO6" t="n">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="BT6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU6" t="n">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="CD6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE6" t="n">
         <v>0</v>
@@ -2681,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="CJ6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK6" t="n">
         <v>0</v>
       </c>
       <c r="CL6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM6" t="n">
         <v>0</v>
@@ -2705,7 +2705,7 @@
         <v>0</v>
       </c>
       <c r="CR6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS6" t="n">
         <v>0</v>
@@ -2717,7 +2717,7 @@
         <v>0</v>
       </c>
       <c r="CV6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW6" t="n">
         <v>0</v>
@@ -2729,7 +2729,7 @@
         <v>0</v>
       </c>
       <c r="CZ6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DA6" t="n">
         <v>0</v>
@@ -2741,7 +2741,7 @@
         <v>0</v>
       </c>
       <c r="DD6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DE6" t="n">
         <v>0</v>
@@ -2759,7 +2759,7 @@
         <v>0</v>
       </c>
       <c r="DJ6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DK6" t="n">
         <v>0</v>
@@ -2771,7 +2771,7 @@
         <v>0</v>
       </c>
       <c r="DN6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DO6" t="n">
         <v>0</v>
@@ -2783,13 +2783,13 @@
         <v>0</v>
       </c>
       <c r="DR6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DS6" t="n">
         <v>0</v>
       </c>
       <c r="DT6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DU6" t="n">
         <v>0</v>
@@ -2855,13 +2855,13 @@
         <v>0</v>
       </c>
       <c r="EP6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ6" t="n">
         <v>0</v>
       </c>
       <c r="ER6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ES6" t="n">
         <v>0</v>
@@ -2870,10 +2870,10 @@
         <v>0</v>
       </c>
       <c r="EU6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EV6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EW6" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="FB6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FC6" t="n">
         <v>0</v>
@@ -2903,13 +2903,13 @@
         <v>0</v>
       </c>
       <c r="FF6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FG6" t="n">
         <v>0</v>
       </c>
       <c r="FH6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FI6" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="FM6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FN6" t="n">
         <v>0</v>
@@ -2945,13 +2945,13 @@
         <v>0</v>
       </c>
       <c r="FT6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FU6" t="n">
         <v>0</v>
       </c>
       <c r="FV6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FW6" t="n">
         <v>0</v>
@@ -2992,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -3007,22 +3007,22 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -3040,13 +3040,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -3064,13 +3064,13 @@
         <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE7" t="n">
         <v>0</v>
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK7" t="n">
         <v>0</v>
@@ -3100,7 +3100,7 @@
         <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO7" t="n">
         <v>0</v>
@@ -3112,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="AR7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS7" t="n">
         <v>0</v>
@@ -3136,19 +3136,19 @@
         <v>0</v>
       </c>
       <c r="AZ7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA7" t="n">
         <v>0</v>
       </c>
       <c r="BB7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC7" t="n">
         <v>0</v>
       </c>
       <c r="BD7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE7" t="n">
         <v>0</v>
@@ -3172,19 +3172,19 @@
         <v>0</v>
       </c>
       <c r="BL7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM7" t="n">
         <v>0</v>
       </c>
       <c r="BN7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO7" t="n">
         <v>0</v>
       </c>
       <c r="BP7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ7" t="n">
         <v>0</v>
@@ -3214,13 +3214,13 @@
         <v>0</v>
       </c>
       <c r="BZ7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA7" t="n">
         <v>0</v>
       </c>
       <c r="CB7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC7" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="CH7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI7" t="n">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="CS7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT7" t="n">
         <v>0</v>
@@ -3286,13 +3286,13 @@
         <v>0</v>
       </c>
       <c r="CX7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY7" t="n">
         <v>0</v>
       </c>
       <c r="CZ7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DA7" t="n">
         <v>0</v>
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DG7" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="DJ7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DK7" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="DN7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DO7" t="n">
         <v>0</v>
@@ -3538,7 +3538,7 @@
         <v>0</v>
       </c>
       <c r="GD7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GE7" t="n">
         <v>0</v>
@@ -3561,7 +3561,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -3573,7 +3573,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -3591,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -3615,7 +3615,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -3672,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS8" t="n">
         <v>0</v>
@@ -3693,7 +3693,7 @@
         <v>0</v>
       </c>
       <c r="AX8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY8" t="n">
         <v>0</v>
@@ -3705,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="BB8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC8" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="BF8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG8" t="n">
         <v>0</v>
@@ -3807,13 +3807,13 @@
         <v>0</v>
       </c>
       <c r="CJ8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK8" t="n">
         <v>0</v>
       </c>
       <c r="CL8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM8" t="n">
         <v>0</v>
@@ -3831,13 +3831,13 @@
         <v>0</v>
       </c>
       <c r="CR8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS8" t="n">
         <v>0</v>
       </c>
       <c r="CT8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU8" t="n">
         <v>0</v>
@@ -3855,13 +3855,13 @@
         <v>0</v>
       </c>
       <c r="CZ8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DA8" t="n">
         <v>0</v>
       </c>
       <c r="DB8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DC8" t="n">
         <v>0</v>
@@ -3879,13 +3879,13 @@
         <v>0</v>
       </c>
       <c r="DH8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DI8" t="n">
         <v>0</v>
       </c>
       <c r="DJ8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DK8" t="n">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="DP8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DQ8" t="n">
         <v>0</v>
@@ -3927,7 +3927,7 @@
         <v>0</v>
       </c>
       <c r="DX8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY8" t="n">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="EH8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EI8" t="n">
         <v>0</v>
@@ -3969,7 +3969,7 @@
         <v>0</v>
       </c>
       <c r="EL8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EM8" t="n">
         <v>0</v>
@@ -3999,13 +3999,13 @@
         <v>0</v>
       </c>
       <c r="EV8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EW8" t="n">
         <v>0</v>
       </c>
       <c r="EX8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EY8" t="n">
         <v>0</v>
@@ -4029,13 +4029,13 @@
         <v>0</v>
       </c>
       <c r="FF8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FG8" t="n">
         <v>0</v>
       </c>
       <c r="FH8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FI8" t="n">
         <v>0</v>
@@ -4056,16 +4056,16 @@
         <v>0</v>
       </c>
       <c r="FO8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FP8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FQ8" t="n">
         <v>0</v>
       </c>
       <c r="FR8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FS8" t="n">
         <v>0</v>
@@ -4083,7 +4083,7 @@
         <v>0</v>
       </c>
       <c r="FX8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FY8" t="n">
         <v>0</v>
@@ -4095,7 +4095,7 @@
         <v>0</v>
       </c>
       <c r="GB8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GC8" t="n">
         <v>0</v>
@@ -4112,7 +4112,7 @@
         <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -4124,13 +4124,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -4145,7 +4145,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -4184,13 +4184,13 @@
         <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
         <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -4208,13 +4208,13 @@
         <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI9" t="n">
         <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK9" t="n">
         <v>0</v>
@@ -4232,13 +4232,13 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ9" t="n">
         <v>0</v>
       </c>
       <c r="AR9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS9" t="n">
         <v>0</v>
@@ -4262,13 +4262,13 @@
         <v>0</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA9" t="n">
         <v>0</v>
       </c>
       <c r="BB9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC9" t="n">
         <v>0</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="BH9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI9" t="n">
         <v>0</v>
@@ -4298,7 +4298,7 @@
         <v>0</v>
       </c>
       <c r="BL9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM9" t="n">
         <v>0</v>
@@ -4325,7 +4325,7 @@
         <v>0</v>
       </c>
       <c r="BU9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV9" t="n">
         <v>0</v>
@@ -4340,7 +4340,7 @@
         <v>0</v>
       </c>
       <c r="BZ9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA9" t="n">
         <v>0</v>
@@ -4349,10 +4349,10 @@
         <v>0</v>
       </c>
       <c r="CC9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE9" t="n">
         <v>0</v>
@@ -4364,13 +4364,13 @@
         <v>0</v>
       </c>
       <c r="CH9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI9" t="n">
         <v>0</v>
       </c>
       <c r="CJ9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK9" t="n">
         <v>0</v>
@@ -4436,13 +4436,13 @@
         <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DG9" t="n">
         <v>0</v>
       </c>
       <c r="DH9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DI9" t="n">
         <v>0</v>
@@ -4454,13 +4454,13 @@
         <v>0</v>
       </c>
       <c r="DL9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DM9" t="n">
         <v>0</v>
       </c>
       <c r="DN9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DO9" t="n">
         <v>0</v>
@@ -4532,7 +4532,7 @@
         <v>0</v>
       </c>
       <c r="EL9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EM9" t="n">
         <v>0</v>
@@ -4544,7 +4544,7 @@
         <v>0</v>
       </c>
       <c r="EP9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ9" t="n">
         <v>0</v>
@@ -4556,7 +4556,7 @@
         <v>0</v>
       </c>
       <c r="ET9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EU9" t="n">
         <v>0</v>
@@ -4571,7 +4571,7 @@
         <v>0</v>
       </c>
       <c r="EY9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EZ9" t="n">
         <v>0</v>
@@ -4592,7 +4592,7 @@
         <v>0</v>
       </c>
       <c r="FF9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FG9" t="n">
         <v>0</v>
@@ -4637,13 +4637,13 @@
         <v>0</v>
       </c>
       <c r="FU9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FV9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FW9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FX9" t="n">
         <v>0</v>
@@ -4652,13 +4652,13 @@
         <v>0</v>
       </c>
       <c r="FZ9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GA9" t="n">
         <v>0</v>
       </c>
       <c r="GB9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GC9" t="n">
         <v>0</v>
@@ -4667,7 +4667,7 @@
         <v>0</v>
       </c>
       <c r="GE9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -4681,7 +4681,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -4699,7 +4699,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -4711,7 +4711,7 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -4723,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -4744,7 +4744,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z10" t="n">
         <v>0</v>
@@ -4765,13 +4765,13 @@
         <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="n">
         <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI10" t="n">
         <v>0</v>
@@ -4783,13 +4783,13 @@
         <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM10" t="n">
         <v>0</v>
       </c>
       <c r="AN10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO10" t="n">
         <v>0</v>
@@ -4858,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="BK10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL10" t="n">
         <v>0</v>
@@ -4891,13 +4891,13 @@
         <v>0</v>
       </c>
       <c r="BV10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW10" t="n">
         <v>0</v>
       </c>
       <c r="BX10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY10" t="n">
         <v>0</v>
@@ -4909,7 +4909,7 @@
         <v>0</v>
       </c>
       <c r="CB10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC10" t="n">
         <v>0</v>
@@ -4921,7 +4921,7 @@
         <v>0</v>
       </c>
       <c r="CF10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG10" t="n">
         <v>0</v>
@@ -4951,7 +4951,7 @@
         <v>0</v>
       </c>
       <c r="CP10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ10" t="n">
         <v>0</v>
@@ -4963,13 +4963,13 @@
         <v>0</v>
       </c>
       <c r="CT10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU10" t="n">
         <v>0</v>
       </c>
       <c r="CV10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW10" t="n">
         <v>0</v>
@@ -4984,7 +4984,7 @@
         <v>0</v>
       </c>
       <c r="DA10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DB10" t="n">
         <v>0</v>
@@ -5017,13 +5017,13 @@
         <v>0</v>
       </c>
       <c r="DL10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DM10" t="n">
         <v>0</v>
       </c>
       <c r="DN10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DO10" t="n">
         <v>0</v>
@@ -5035,7 +5035,7 @@
         <v>0</v>
       </c>
       <c r="DR10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DS10" t="n">
         <v>0</v>
@@ -5047,7 +5047,7 @@
         <v>0</v>
       </c>
       <c r="DV10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DW10" t="n">
         <v>0</v>
@@ -5065,13 +5065,13 @@
         <v>0</v>
       </c>
       <c r="EB10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EC10" t="n">
         <v>0</v>
       </c>
       <c r="ED10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EE10" t="n">
         <v>0</v>
@@ -5161,7 +5161,7 @@
         <v>0</v>
       </c>
       <c r="FH10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FI10" t="n">
         <v>0</v>
@@ -5179,13 +5179,13 @@
         <v>0</v>
       </c>
       <c r="FN10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FO10" t="n">
         <v>0</v>
       </c>
       <c r="FP10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FQ10" t="n">
         <v>0</v>
@@ -5203,13 +5203,13 @@
         <v>0</v>
       </c>
       <c r="FV10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FW10" t="n">
         <v>0</v>
       </c>
       <c r="FX10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FY10" t="n">
         <v>0</v>
@@ -5238,7 +5238,7 @@
         <v>5</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -5250,7 +5250,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -5268,7 +5268,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -5292,13 +5292,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -5310,19 +5310,19 @@
         <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB11" t="n">
         <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE11" t="n">
         <v>0</v>
@@ -5340,7 +5340,7 @@
         <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK11" t="n">
         <v>0</v>
@@ -5352,7 +5352,7 @@
         <v>0</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO11" t="n">
         <v>0</v>
@@ -5370,19 +5370,19 @@
         <v>0</v>
       </c>
       <c r="AT11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
       </c>
       <c r="AV11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW11" t="n">
         <v>0</v>
       </c>
       <c r="AX11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY11" t="n">
         <v>0</v>
@@ -5424,7 +5424,7 @@
         <v>0</v>
       </c>
       <c r="BL11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM11" t="n">
         <v>0</v>
@@ -5436,13 +5436,13 @@
         <v>0</v>
       </c>
       <c r="BP11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ11" t="n">
         <v>0</v>
       </c>
       <c r="BR11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS11" t="n">
         <v>0</v>
@@ -5454,7 +5454,7 @@
         <v>0</v>
       </c>
       <c r="BV11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW11" t="n">
         <v>0</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA11" t="n">
         <v>0</v>
@@ -5484,7 +5484,7 @@
         <v>0</v>
       </c>
       <c r="CF11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG11" t="n">
         <v>0</v>
@@ -5496,7 +5496,7 @@
         <v>0</v>
       </c>
       <c r="CJ11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK11" t="n">
         <v>0</v>
@@ -5520,7 +5520,7 @@
         <v>0</v>
       </c>
       <c r="CR11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS11" t="n">
         <v>0</v>
@@ -5532,7 +5532,7 @@
         <v>0</v>
       </c>
       <c r="CV11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW11" t="n">
         <v>0</v>
@@ -5544,13 +5544,13 @@
         <v>0</v>
       </c>
       <c r="CZ11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DA11" t="n">
         <v>0</v>
       </c>
       <c r="DB11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DC11" t="n">
         <v>0</v>
@@ -5568,19 +5568,19 @@
         <v>0</v>
       </c>
       <c r="DH11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DI11" t="n">
         <v>0</v>
       </c>
       <c r="DJ11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DK11" t="n">
         <v>0</v>
       </c>
       <c r="DL11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DM11" t="n">
         <v>0</v>
@@ -5610,13 +5610,13 @@
         <v>0</v>
       </c>
       <c r="DV11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DW11" t="n">
         <v>0</v>
       </c>
       <c r="DX11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DY11" t="n">
         <v>0</v>
@@ -5640,7 +5640,7 @@
         <v>0</v>
       </c>
       <c r="EF11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EG11" t="n">
         <v>0</v>
@@ -5670,7 +5670,7 @@
         <v>0</v>
       </c>
       <c r="EP11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ11" t="n">
         <v>0</v>
@@ -5682,7 +5682,7 @@
         <v>0</v>
       </c>
       <c r="ET11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EU11" t="n">
         <v>0</v>
@@ -5712,7 +5712,7 @@
         <v>0</v>
       </c>
       <c r="FD11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FE11" t="n">
         <v>0</v>
@@ -5724,7 +5724,7 @@
         <v>0</v>
       </c>
       <c r="FH11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FI11" t="n">
         <v>0</v>
@@ -5736,13 +5736,13 @@
         <v>0</v>
       </c>
       <c r="FL11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FM11" t="n">
         <v>0</v>
       </c>
       <c r="FN11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FO11" t="n">
         <v>0</v>
@@ -5760,19 +5760,19 @@
         <v>0</v>
       </c>
       <c r="FT11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FU11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FV11" t="n">
         <v>0</v>
       </c>
       <c r="FW11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FX11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FY11" t="n">
         <v>0</v>
@@ -5784,7 +5784,7 @@
         <v>0</v>
       </c>
       <c r="GB11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GC11" t="n">
         <v>0</v>
@@ -5807,7 +5807,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -5819,13 +5819,13 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -5843,13 +5843,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -5867,13 +5867,13 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA12" t="n">
         <v>0</v>
@@ -5903,7 +5903,7 @@
         <v>0</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK12" t="n">
         <v>0</v>
@@ -5927,13 +5927,13 @@
         <v>0</v>
       </c>
       <c r="AR12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS12" t="n">
         <v>0</v>
       </c>
       <c r="AT12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -5945,7 +5945,7 @@
         <v>0</v>
       </c>
       <c r="AX12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY12" t="n">
         <v>0</v>
@@ -5957,7 +5957,7 @@
         <v>0</v>
       </c>
       <c r="BB12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC12" t="n">
         <v>0</v>
@@ -5969,7 +5969,7 @@
         <v>0</v>
       </c>
       <c r="BF12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG12" t="n">
         <v>0</v>
@@ -5981,7 +5981,7 @@
         <v>0</v>
       </c>
       <c r="BJ12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK12" t="n">
         <v>0</v>
@@ -5993,7 +5993,7 @@
         <v>0</v>
       </c>
       <c r="BN12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO12" t="n">
         <v>0</v>
@@ -6005,7 +6005,7 @@
         <v>0</v>
       </c>
       <c r="BR12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS12" t="n">
         <v>0</v>
@@ -6035,7 +6035,7 @@
         <v>0</v>
       </c>
       <c r="CB12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC12" t="n">
         <v>0</v>
@@ -6047,7 +6047,7 @@
         <v>0</v>
       </c>
       <c r="CF12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG12" t="n">
         <v>0</v>
@@ -6065,7 +6065,7 @@
         <v>0</v>
       </c>
       <c r="CL12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM12" t="n">
         <v>0</v>
@@ -6077,7 +6077,7 @@
         <v>0</v>
       </c>
       <c r="CP12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ12" t="n">
         <v>0</v>
@@ -6101,7 +6101,7 @@
         <v>0</v>
       </c>
       <c r="CX12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CY12" t="n">
         <v>0</v>
@@ -6113,7 +6113,7 @@
         <v>0</v>
       </c>
       <c r="DB12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DC12" t="n">
         <v>0</v>
@@ -6239,10 +6239,10 @@
         <v>0</v>
       </c>
       <c r="ER12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ES12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ET12" t="n">
         <v>0</v>
@@ -6251,13 +6251,13 @@
         <v>0</v>
       </c>
       <c r="EV12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EW12" t="n">
         <v>0</v>
       </c>
       <c r="EX12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY12" t="n">
         <v>0</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="FA12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FB12" t="n">
         <v>0</v>
@@ -6281,7 +6281,7 @@
         <v>0</v>
       </c>
       <c r="FF12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FG12" t="n">
         <v>0</v>
@@ -6296,7 +6296,7 @@
         <v>0</v>
       </c>
       <c r="FK12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FL12" t="n">
         <v>0</v>
@@ -6305,13 +6305,13 @@
         <v>0</v>
       </c>
       <c r="FN12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FO12" t="n">
         <v>0</v>
       </c>
       <c r="FP12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FQ12" t="n">
         <v>0</v>
@@ -6323,7 +6323,7 @@
         <v>0</v>
       </c>
       <c r="FT12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FU12" t="n">
         <v>0</v>
@@ -6335,10 +6335,10 @@
         <v>0</v>
       </c>
       <c r="FX12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FY12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FZ12" t="n">
         <v>0</v>
@@ -6382,13 +6382,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -6406,19 +6406,19 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -6448,13 +6448,13 @@
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE13" t="n">
         <v>0</v>
       </c>
       <c r="AF13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG13" t="n">
         <v>0</v>
@@ -6484,7 +6484,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ13" t="n">
         <v>0</v>
@@ -6496,7 +6496,7 @@
         <v>0</v>
       </c>
       <c r="AT13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -6508,13 +6508,13 @@
         <v>0</v>
       </c>
       <c r="AX13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY13" t="n">
         <v>0</v>
       </c>
       <c r="AZ13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA13" t="n">
         <v>0</v>
@@ -6538,10 +6538,10 @@
         <v>0</v>
       </c>
       <c r="BH13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ13" t="n">
         <v>0</v>
@@ -6562,13 +6562,13 @@
         <v>0</v>
       </c>
       <c r="BP13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ13" t="n">
         <v>0</v>
       </c>
       <c r="BR13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS13" t="n">
         <v>0</v>
@@ -6580,13 +6580,13 @@
         <v>0</v>
       </c>
       <c r="BV13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW13" t="n">
         <v>0</v>
       </c>
       <c r="BX13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY13" t="n">
         <v>0</v>
@@ -6598,7 +6598,7 @@
         <v>0</v>
       </c>
       <c r="CB13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC13" t="n">
         <v>0</v>
@@ -6610,7 +6610,7 @@
         <v>0</v>
       </c>
       <c r="CF13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG13" t="n">
         <v>0</v>
@@ -6628,7 +6628,7 @@
         <v>0</v>
       </c>
       <c r="CL13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM13" t="n">
         <v>0</v>
@@ -6637,7 +6637,7 @@
         <v>0</v>
       </c>
       <c r="CO13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP13" t="n">
         <v>0</v>
@@ -6652,13 +6652,13 @@
         <v>0</v>
       </c>
       <c r="CT13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU13" t="n">
         <v>0</v>
       </c>
       <c r="CV13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW13" t="n">
         <v>0</v>
@@ -6670,13 +6670,13 @@
         <v>0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DA13" t="n">
         <v>0</v>
       </c>
       <c r="DB13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DC13" t="n">
         <v>0</v>
@@ -6763,16 +6763,16 @@
         <v>0</v>
       </c>
       <c r="EE13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EF13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EG13" t="n">
         <v>0</v>
       </c>
       <c r="EH13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EI13" t="n">
         <v>0</v>
@@ -6790,13 +6790,13 @@
         <v>0</v>
       </c>
       <c r="EN13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EO13" t="n">
         <v>0</v>
       </c>
       <c r="EP13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ13" t="n">
         <v>0</v>
@@ -6814,16 +6814,16 @@
         <v>0</v>
       </c>
       <c r="EV13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EW13" t="n">
         <v>0</v>
       </c>
       <c r="EX13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ13" t="n">
         <v>0</v>
@@ -6832,7 +6832,7 @@
         <v>0</v>
       </c>
       <c r="FB13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FC13" t="n">
         <v>0</v>
@@ -6844,7 +6844,7 @@
         <v>0</v>
       </c>
       <c r="FF13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FG13" t="n">
         <v>0</v>
@@ -6862,7 +6862,7 @@
         <v>0</v>
       </c>
       <c r="FL13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FM13" t="n">
         <v>0</v>
@@ -6939,7 +6939,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -6951,7 +6951,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -6963,13 +6963,13 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -6987,13 +6987,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -7011,13 +7011,13 @@
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE14" t="n">
         <v>0</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG14" t="n">
         <v>0</v>
@@ -7035,13 +7035,13 @@
         <v>0</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM14" t="n">
         <v>0</v>
       </c>
       <c r="AN14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO14" t="n">
         <v>0</v>
@@ -7059,13 +7059,13 @@
         <v>0</v>
       </c>
       <c r="AT14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
       </c>
       <c r="AV14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW14" t="n">
         <v>0</v>
@@ -7083,7 +7083,7 @@
         <v>0</v>
       </c>
       <c r="BB14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC14" t="n">
         <v>0</v>
@@ -7092,7 +7092,7 @@
         <v>0</v>
       </c>
       <c r="BE14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF14" t="n">
         <v>0</v>
@@ -7107,7 +7107,7 @@
         <v>0</v>
       </c>
       <c r="BJ14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK14" t="n">
         <v>0</v>
@@ -7119,7 +7119,7 @@
         <v>0</v>
       </c>
       <c r="BN14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO14" t="n">
         <v>0</v>
@@ -7131,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="BR14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS14" t="n">
         <v>0</v>
@@ -7143,13 +7143,13 @@
         <v>0</v>
       </c>
       <c r="BV14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW14" t="n">
         <v>0</v>
       </c>
       <c r="BX14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY14" t="n">
         <v>0</v>
@@ -7173,13 +7173,13 @@
         <v>0</v>
       </c>
       <c r="CF14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG14" t="n">
         <v>0</v>
       </c>
       <c r="CH14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI14" t="n">
         <v>0</v>
@@ -7203,19 +7203,19 @@
         <v>0</v>
       </c>
       <c r="CP14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ14" t="n">
         <v>0</v>
       </c>
       <c r="CR14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS14" t="n">
         <v>0</v>
       </c>
       <c r="CT14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU14" t="n">
         <v>0</v>
@@ -7245,7 +7245,7 @@
         <v>0</v>
       </c>
       <c r="DD14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE14" t="n">
         <v>0</v>
@@ -7257,7 +7257,7 @@
         <v>0</v>
       </c>
       <c r="DH14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DI14" t="n">
         <v>0</v>
@@ -7275,19 +7275,19 @@
         <v>0</v>
       </c>
       <c r="DN14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DO14" t="n">
         <v>0</v>
       </c>
       <c r="DP14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DQ14" t="n">
         <v>0</v>
       </c>
       <c r="DR14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DS14" t="n">
         <v>0</v>
@@ -7302,10 +7302,10 @@
         <v>0</v>
       </c>
       <c r="DW14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY14" t="n">
         <v>0</v>
@@ -7329,19 +7329,19 @@
         <v>0</v>
       </c>
       <c r="EF14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EG14" t="n">
         <v>0</v>
       </c>
       <c r="EH14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EI14" t="n">
         <v>0</v>
       </c>
       <c r="EJ14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK14" t="n">
         <v>0</v>
@@ -7359,7 +7359,7 @@
         <v>0</v>
       </c>
       <c r="EP14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ14" t="n">
         <v>0</v>
@@ -7371,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="ET14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EU14" t="n">
         <v>0</v>
@@ -7389,7 +7389,7 @@
         <v>0</v>
       </c>
       <c r="EZ14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FA14" t="n">
         <v>0</v>
@@ -7401,7 +7401,7 @@
         <v>0</v>
       </c>
       <c r="FD14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FE14" t="n">
         <v>0</v>
@@ -7413,7 +7413,7 @@
         <v>0</v>
       </c>
       <c r="FH14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FI14" t="n">
         <v>0</v>
@@ -7422,10 +7422,10 @@
         <v>0</v>
       </c>
       <c r="FK14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FL14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FM14" t="n">
         <v>0</v>
@@ -7437,7 +7437,7 @@
         <v>0</v>
       </c>
       <c r="FP14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FQ14" t="n">
         <v>0</v>
@@ -7467,7 +7467,7 @@
         <v>0</v>
       </c>
       <c r="FZ14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GA14" t="n">
         <v>0</v>
@@ -7490,7 +7490,7 @@
         <v>9</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -7502,7 +7502,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -7520,13 +7520,13 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -7562,13 +7562,13 @@
         <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
         <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -7616,7 +7616,7 @@
         <v>0</v>
       </c>
       <c r="AR15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS15" t="n">
         <v>0</v>
@@ -7634,7 +7634,7 @@
         <v>0</v>
       </c>
       <c r="AX15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY15" t="n">
         <v>0</v>
@@ -7646,7 +7646,7 @@
         <v>0</v>
       </c>
       <c r="BB15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC15" t="n">
         <v>0</v>
@@ -7658,7 +7658,7 @@
         <v>0</v>
       </c>
       <c r="BF15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG15" t="n">
         <v>0</v>
@@ -7682,7 +7682,7 @@
         <v>0</v>
       </c>
       <c r="BN15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO15" t="n">
         <v>0</v>
@@ -7697,7 +7697,7 @@
         <v>0</v>
       </c>
       <c r="BS15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT15" t="n">
         <v>0</v>
@@ -7706,13 +7706,13 @@
         <v>0</v>
       </c>
       <c r="BV15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW15" t="n">
         <v>0</v>
       </c>
       <c r="BX15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY15" t="n">
         <v>0</v>
@@ -7724,7 +7724,7 @@
         <v>0</v>
       </c>
       <c r="CB15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC15" t="n">
         <v>0</v>
@@ -7736,7 +7736,7 @@
         <v>0</v>
       </c>
       <c r="CF15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG15" t="n">
         <v>0</v>
@@ -7754,13 +7754,13 @@
         <v>0</v>
       </c>
       <c r="CL15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM15" t="n">
         <v>0</v>
       </c>
       <c r="CN15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO15" t="n">
         <v>0</v>
@@ -7778,7 +7778,7 @@
         <v>0</v>
       </c>
       <c r="CT15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU15" t="n">
         <v>0</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="DB15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DC15" t="n">
         <v>0</v>
@@ -7820,7 +7820,7 @@
         <v>0</v>
       </c>
       <c r="DH15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DI15" t="n">
         <v>0</v>
@@ -7850,7 +7850,7 @@
         <v>0</v>
       </c>
       <c r="DR15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DS15" t="n">
         <v>0</v>
@@ -7862,7 +7862,7 @@
         <v>0</v>
       </c>
       <c r="DV15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DW15" t="n">
         <v>0</v>
@@ -7880,7 +7880,7 @@
         <v>0</v>
       </c>
       <c r="EB15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EC15" t="n">
         <v>0</v>
@@ -7892,7 +7892,7 @@
         <v>0</v>
       </c>
       <c r="EF15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG15" t="n">
         <v>0</v>
@@ -7904,13 +7904,13 @@
         <v>0</v>
       </c>
       <c r="EJ15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EK15" t="n">
         <v>0</v>
       </c>
       <c r="EL15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EM15" t="n">
         <v>0</v>
@@ -7958,13 +7958,13 @@
         <v>0</v>
       </c>
       <c r="FB15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FC15" t="n">
         <v>0</v>
       </c>
       <c r="FD15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FE15" t="n">
         <v>0</v>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="FH15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FI15" t="n">
         <v>0</v>
       </c>
       <c r="FJ15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FK15" t="n">
         <v>0</v>
@@ -8059,7 +8059,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -8071,7 +8071,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -8080,7 +8080,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -8095,7 +8095,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -8107,7 +8107,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -8119,7 +8119,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -8137,13 +8137,13 @@
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE16" t="n">
         <v>0</v>
       </c>
       <c r="AF16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG16" t="n">
         <v>0</v>
@@ -8167,10 +8167,10 @@
         <v>0</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP16" t="n">
         <v>0</v>
@@ -8215,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="BD16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE16" t="n">
         <v>0</v>
       </c>
       <c r="BF16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG16" t="n">
         <v>0</v>
@@ -8236,7 +8236,7 @@
         <v>0</v>
       </c>
       <c r="BK16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL16" t="n">
         <v>0</v>
@@ -8323,13 +8323,13 @@
         <v>0</v>
       </c>
       <c r="CN16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO16" t="n">
         <v>0</v>
       </c>
       <c r="CP16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ16" t="n">
         <v>0</v>
@@ -8383,7 +8383,7 @@
         <v>0</v>
       </c>
       <c r="DH16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DI16" t="n">
         <v>0</v>
@@ -8401,19 +8401,19 @@
         <v>0</v>
       </c>
       <c r="DN16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DO16" t="n">
         <v>0</v>
       </c>
       <c r="DP16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DQ16" t="n">
         <v>0</v>
       </c>
       <c r="DR16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DS16" t="n">
         <v>0</v>
@@ -8431,7 +8431,7 @@
         <v>0</v>
       </c>
       <c r="DX16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DY16" t="n">
         <v>0</v>
@@ -8449,13 +8449,13 @@
         <v>0</v>
       </c>
       <c r="ED16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EE16" t="n">
         <v>0</v>
       </c>
       <c r="EF16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EG16" t="n">
         <v>0</v>
@@ -8467,7 +8467,7 @@
         <v>0</v>
       </c>
       <c r="EJ16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EK16" t="n">
         <v>0</v>
@@ -8479,7 +8479,7 @@
         <v>0</v>
       </c>
       <c r="EN16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EO16" t="n">
         <v>0</v>
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="ER16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ES16" t="n">
         <v>0</v>
@@ -8503,7 +8503,7 @@
         <v>0</v>
       </c>
       <c r="EV16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EW16" t="n">
         <v>0</v>
@@ -8515,7 +8515,7 @@
         <v>0</v>
       </c>
       <c r="EZ16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FA16" t="n">
         <v>0</v>
@@ -8533,13 +8533,13 @@
         <v>0</v>
       </c>
       <c r="FF16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FG16" t="n">
         <v>0</v>
       </c>
       <c r="FH16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FI16" t="n">
         <v>0</v>
@@ -8548,7 +8548,7 @@
         <v>0</v>
       </c>
       <c r="FK16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FL16" t="n">
         <v>0</v>
@@ -8557,7 +8557,7 @@
         <v>0</v>
       </c>
       <c r="FN16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FO16" t="n">
         <v>0</v>
@@ -8569,13 +8569,13 @@
         <v>0</v>
       </c>
       <c r="FR16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FS16" t="n">
         <v>0</v>
       </c>
       <c r="FT16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FU16" t="n">
         <v>0</v>
@@ -8605,7 +8605,7 @@
         <v>0</v>
       </c>
       <c r="GD16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GE16" t="n">
         <v>0</v>
@@ -8634,7 +8634,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -8646,7 +8646,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -8664,7 +8664,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -8676,7 +8676,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -8688,7 +8688,7 @@
         <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA17" t="n">
         <v>0</v>
@@ -8700,7 +8700,7 @@
         <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE17" t="n">
         <v>0</v>
@@ -8718,7 +8718,7 @@
         <v>0</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK17" t="n">
         <v>0</v>
@@ -8730,7 +8730,7 @@
         <v>0</v>
       </c>
       <c r="AN17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO17" t="n">
         <v>0</v>
@@ -8742,13 +8742,13 @@
         <v>0</v>
       </c>
       <c r="AR17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS17" t="n">
         <v>0</v>
       </c>
       <c r="AT17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -8760,7 +8760,7 @@
         <v>0</v>
       </c>
       <c r="AX17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY17" t="n">
         <v>0</v>
@@ -8772,7 +8772,7 @@
         <v>0</v>
       </c>
       <c r="BB17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC17" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="BH17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI17" t="n">
         <v>0</v>
@@ -8802,7 +8802,7 @@
         <v>0</v>
       </c>
       <c r="BL17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM17" t="n">
         <v>0</v>
@@ -8814,13 +8814,13 @@
         <v>0</v>
       </c>
       <c r="BP17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ17" t="n">
         <v>0</v>
       </c>
       <c r="BR17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS17" t="n">
         <v>0</v>
@@ -8832,7 +8832,7 @@
         <v>0</v>
       </c>
       <c r="BV17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW17" t="n">
         <v>0</v>
@@ -8847,10 +8847,10 @@
         <v>0</v>
       </c>
       <c r="CA17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC17" t="n">
         <v>0</v>
@@ -8868,7 +8868,7 @@
         <v>0</v>
       </c>
       <c r="CH17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI17" t="n">
         <v>0</v>
@@ -8877,7 +8877,7 @@
         <v>0</v>
       </c>
       <c r="CK17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL17" t="n">
         <v>0</v>
@@ -8892,13 +8892,13 @@
         <v>0</v>
       </c>
       <c r="CP17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ17" t="n">
         <v>0</v>
       </c>
       <c r="CR17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS17" t="n">
         <v>0</v>
@@ -8916,7 +8916,7 @@
         <v>0</v>
       </c>
       <c r="CX17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CY17" t="n">
         <v>0</v>
@@ -8940,16 +8940,16 @@
         <v>0</v>
       </c>
       <c r="DF17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DG17" t="n">
         <v>0</v>
       </c>
       <c r="DH17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DI17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DJ17" t="n">
         <v>0</v>
@@ -8958,7 +8958,7 @@
         <v>0</v>
       </c>
       <c r="DL17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DM17" t="n">
         <v>0</v>
@@ -8970,7 +8970,7 @@
         <v>0</v>
       </c>
       <c r="DP17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DQ17" t="n">
         <v>0</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="DZ17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EA17" t="n">
         <v>0</v>
@@ -9012,13 +9012,13 @@
         <v>0</v>
       </c>
       <c r="ED17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EE17" t="n">
         <v>0</v>
       </c>
       <c r="EF17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG17" t="n">
         <v>0</v>
@@ -9042,7 +9042,7 @@
         <v>0</v>
       </c>
       <c r="EN17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EO17" t="n">
         <v>0</v>
@@ -9066,7 +9066,7 @@
         <v>0</v>
       </c>
       <c r="EV17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EW17" t="n">
         <v>0</v>
@@ -9102,7 +9102,7 @@
         <v>0</v>
       </c>
       <c r="FH17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FI17" t="n">
         <v>0</v>
@@ -9114,7 +9114,7 @@
         <v>0</v>
       </c>
       <c r="FL17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FM17" t="n">
         <v>0</v>
@@ -9132,7 +9132,7 @@
         <v>0</v>
       </c>
       <c r="FR17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FS17" t="n">
         <v>0</v>
@@ -9144,7 +9144,7 @@
         <v>0</v>
       </c>
       <c r="FV17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FW17" t="n">
         <v>0</v>
@@ -9156,7 +9156,7 @@
         <v>0</v>
       </c>
       <c r="FZ17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GA17" t="n">
         <v>0</v>
@@ -9179,13 +9179,13 @@
         <v>12</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -9194,10 +9194,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -9215,7 +9215,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9227,7 +9227,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -9257,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="AB18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
@@ -9287,13 +9287,13 @@
         <v>0</v>
       </c>
       <c r="AL18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM18" t="n">
         <v>0</v>
       </c>
       <c r="AN18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO18" t="n">
         <v>0</v>
@@ -9365,7 +9365,7 @@
         <v>0</v>
       </c>
       <c r="BL18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM18" t="n">
         <v>0</v>
@@ -9377,7 +9377,7 @@
         <v>0</v>
       </c>
       <c r="BP18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ18" t="n">
         <v>0</v>
@@ -9410,10 +9410,10 @@
         <v>0</v>
       </c>
       <c r="CA18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC18" t="n">
         <v>0</v>
@@ -9446,7 +9446,7 @@
         <v>0</v>
       </c>
       <c r="CM18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN18" t="n">
         <v>0</v>
@@ -9455,7 +9455,7 @@
         <v>0</v>
       </c>
       <c r="CP18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ18" t="n">
         <v>0</v>
@@ -9467,7 +9467,7 @@
         <v>0</v>
       </c>
       <c r="CT18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU18" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>0</v>
       </c>
       <c r="CX18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY18" t="n">
         <v>0</v>
@@ -9491,7 +9491,7 @@
         <v>0</v>
       </c>
       <c r="DB18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DC18" t="n">
         <v>0</v>
@@ -9557,13 +9557,13 @@
         <v>0</v>
       </c>
       <c r="DX18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY18" t="n">
         <v>0</v>
       </c>
       <c r="DZ18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EA18" t="n">
         <v>0</v>
@@ -9581,13 +9581,13 @@
         <v>0</v>
       </c>
       <c r="EF18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG18" t="n">
         <v>0</v>
       </c>
       <c r="EH18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EI18" t="n">
         <v>0</v>
@@ -9605,7 +9605,7 @@
         <v>0</v>
       </c>
       <c r="EN18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EO18" t="n">
         <v>0</v>
@@ -9617,7 +9617,7 @@
         <v>0</v>
       </c>
       <c r="ER18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ES18" t="n">
         <v>0</v>
@@ -9653,13 +9653,13 @@
         <v>0</v>
       </c>
       <c r="FD18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FE18" t="n">
         <v>0</v>
       </c>
       <c r="FF18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FG18" t="n">
         <v>0</v>
@@ -9677,7 +9677,7 @@
         <v>0</v>
       </c>
       <c r="FL18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FM18" t="n">
         <v>0</v>
@@ -9689,7 +9689,7 @@
         <v>0</v>
       </c>
       <c r="FP18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FQ18" t="n">
         <v>0</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="FX18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FY18" t="n">
         <v>0</v>
@@ -9725,7 +9725,7 @@
         <v>0</v>
       </c>
       <c r="GB18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GC18" t="n">
         <v>0</v>
@@ -9742,13 +9742,13 @@
         <v>13</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -9757,7 +9757,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -9772,13 +9772,13 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -9817,7 +9817,7 @@
         <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB19" t="n">
         <v>0</v>
@@ -9850,7 +9850,7 @@
         <v>0</v>
       </c>
       <c r="AL19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM19" t="n">
         <v>0</v>
@@ -9868,13 +9868,13 @@
         <v>0</v>
       </c>
       <c r="AR19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS19" t="n">
         <v>0</v>
       </c>
       <c r="AT19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -9892,13 +9892,13 @@
         <v>0</v>
       </c>
       <c r="AZ19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA19" t="n">
         <v>0</v>
       </c>
       <c r="BB19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC19" t="n">
         <v>0</v>
@@ -9916,13 +9916,13 @@
         <v>0</v>
       </c>
       <c r="BH19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI19" t="n">
         <v>0</v>
       </c>
       <c r="BJ19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK19" t="n">
         <v>0</v>
@@ -10000,7 +10000,7 @@
         <v>0</v>
       </c>
       <c r="CJ19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK19" t="n">
         <v>0</v>
@@ -10024,13 +10024,13 @@
         <v>0</v>
       </c>
       <c r="CR19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS19" t="n">
         <v>0</v>
       </c>
       <c r="CT19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU19" t="n">
         <v>0</v>
@@ -10048,7 +10048,7 @@
         <v>0</v>
       </c>
       <c r="CZ19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DA19" t="n">
         <v>0</v>
@@ -10078,13 +10078,13 @@
         <v>0</v>
       </c>
       <c r="DJ19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DK19" t="n">
         <v>0</v>
       </c>
       <c r="DL19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DM19" t="n">
         <v>0</v>
@@ -10108,13 +10108,13 @@
         <v>0</v>
       </c>
       <c r="DT19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DU19" t="n">
         <v>0</v>
       </c>
       <c r="DV19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DW19" t="n">
         <v>0</v>
@@ -10126,7 +10126,7 @@
         <v>0</v>
       </c>
       <c r="DZ19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EA19" t="n">
         <v>0</v>
@@ -10138,10 +10138,10 @@
         <v>0</v>
       </c>
       <c r="ED19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EE19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EF19" t="n">
         <v>0</v>
@@ -10150,7 +10150,7 @@
         <v>0</v>
       </c>
       <c r="EH19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EI19" t="n">
         <v>0</v>
@@ -10168,13 +10168,13 @@
         <v>0</v>
       </c>
       <c r="EN19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EO19" t="n">
         <v>0</v>
       </c>
       <c r="EP19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ19" t="n">
         <v>0</v>
@@ -10216,13 +10216,13 @@
         <v>0</v>
       </c>
       <c r="FD19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FE19" t="n">
         <v>0</v>
       </c>
       <c r="FF19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FG19" t="n">
         <v>0</v>
@@ -10252,10 +10252,10 @@
         <v>0</v>
       </c>
       <c r="FP19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FQ19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FR19" t="n">
         <v>0</v>
@@ -10270,13 +10270,13 @@
         <v>0</v>
       </c>
       <c r="FV19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FW19" t="n">
         <v>0</v>
       </c>
       <c r="FX19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FY19" t="n">
         <v>0</v>
@@ -10288,7 +10288,7 @@
         <v>0</v>
       </c>
       <c r="GB19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GC19" t="n">
         <v>0</v>
@@ -10323,7 +10323,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -10347,13 +10347,13 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -10371,7 +10371,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -10395,13 +10395,13 @@
         <v>0</v>
       </c>
       <c r="AF20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG20" t="n">
         <v>0</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI20" t="n">
         <v>0</v>
@@ -10413,7 +10413,7 @@
         <v>0</v>
       </c>
       <c r="AL20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM20" t="n">
         <v>0</v>
@@ -10425,13 +10425,13 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ20" t="n">
         <v>0</v>
       </c>
       <c r="AR20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS20" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="AX20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY20" t="n">
         <v>0</v>
@@ -10461,7 +10461,7 @@
         <v>0</v>
       </c>
       <c r="BB20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC20" t="n">
         <v>0</v>
@@ -10479,7 +10479,7 @@
         <v>0</v>
       </c>
       <c r="BH20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI20" t="n">
         <v>0</v>
@@ -10491,7 +10491,7 @@
         <v>0</v>
       </c>
       <c r="BL20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM20" t="n">
         <v>0</v>
@@ -10503,7 +10503,7 @@
         <v>0</v>
       </c>
       <c r="BP20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ20" t="n">
         <v>0</v>
@@ -10515,13 +10515,13 @@
         <v>0</v>
       </c>
       <c r="BT20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU20" t="n">
         <v>0</v>
       </c>
       <c r="BV20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW20" t="n">
         <v>0</v>
@@ -10593,13 +10593,13 @@
         <v>0</v>
       </c>
       <c r="CT20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU20" t="n">
         <v>0</v>
       </c>
       <c r="CV20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW20" t="n">
         <v>0</v>
@@ -10629,7 +10629,7 @@
         <v>0</v>
       </c>
       <c r="DF20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DG20" t="n">
         <v>0</v>
@@ -10644,7 +10644,7 @@
         <v>0</v>
       </c>
       <c r="DK20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DL20" t="n">
         <v>0</v>
@@ -10665,13 +10665,13 @@
         <v>0</v>
       </c>
       <c r="DR20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DS20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DT20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DU20" t="n">
         <v>0</v>
@@ -10689,13 +10689,13 @@
         <v>0</v>
       </c>
       <c r="DZ20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EA20" t="n">
         <v>0</v>
       </c>
       <c r="EB20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EC20" t="n">
         <v>0</v>
@@ -10710,7 +10710,7 @@
         <v>0</v>
       </c>
       <c r="EG20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH20" t="n">
         <v>0</v>
@@ -10719,7 +10719,7 @@
         <v>0</v>
       </c>
       <c r="EJ20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK20" t="n">
         <v>0</v>
@@ -10731,13 +10731,13 @@
         <v>0</v>
       </c>
       <c r="EN20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EO20" t="n">
         <v>0</v>
       </c>
       <c r="EP20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ20" t="n">
         <v>0</v>
@@ -10761,13 +10761,13 @@
         <v>0</v>
       </c>
       <c r="EX20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EY20" t="n">
         <v>0</v>
       </c>
       <c r="EZ20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FA20" t="n">
         <v>0</v>
@@ -10785,7 +10785,7 @@
         <v>0</v>
       </c>
       <c r="FF20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FG20" t="n">
         <v>0</v>
@@ -10809,7 +10809,7 @@
         <v>0</v>
       </c>
       <c r="FN20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FO20" t="n">
         <v>0</v>
@@ -10827,13 +10827,13 @@
         <v>0</v>
       </c>
       <c r="FT20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FU20" t="n">
         <v>0</v>
       </c>
       <c r="FV20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FW20" t="n">
         <v>0</v>
@@ -10845,13 +10845,13 @@
         <v>0</v>
       </c>
       <c r="FZ20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GA20" t="n">
         <v>0</v>
       </c>
       <c r="GB20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GC20" t="n">
         <v>0</v>
@@ -10860,7 +10860,7 @@
         <v>0</v>
       </c>
       <c r="GE20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -10868,7 +10868,7 @@
         <v>15</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -10892,13 +10892,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -10916,7 +10916,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -11000,7 +11000,7 @@
         <v>0</v>
       </c>
       <c r="AT21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -11012,7 +11012,7 @@
         <v>0</v>
       </c>
       <c r="AX21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY21" t="n">
         <v>0</v>
@@ -11030,13 +11030,13 @@
         <v>0</v>
       </c>
       <c r="BD21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE21" t="n">
         <v>0</v>
       </c>
       <c r="BF21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG21" t="n">
         <v>0</v>
@@ -11054,13 +11054,13 @@
         <v>0</v>
       </c>
       <c r="BL21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM21" t="n">
         <v>0</v>
       </c>
       <c r="BN21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO21" t="n">
         <v>0</v>
@@ -11078,7 +11078,7 @@
         <v>0</v>
       </c>
       <c r="BT21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU21" t="n">
         <v>0</v>
@@ -11090,7 +11090,7 @@
         <v>0</v>
       </c>
       <c r="BX21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY21" t="n">
         <v>0</v>
@@ -11108,13 +11108,13 @@
         <v>0</v>
       </c>
       <c r="CD21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE21" t="n">
         <v>0</v>
       </c>
       <c r="CF21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG21" t="n">
         <v>0</v>
@@ -11126,7 +11126,7 @@
         <v>0</v>
       </c>
       <c r="CJ21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK21" t="n">
         <v>0</v>
@@ -11150,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="CR21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS21" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="CV21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW21" t="n">
         <v>0</v>
@@ -11174,13 +11174,13 @@
         <v>0</v>
       </c>
       <c r="CZ21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DA21" t="n">
         <v>0</v>
       </c>
       <c r="DB21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DC21" t="n">
         <v>0</v>
@@ -11231,10 +11231,10 @@
         <v>0</v>
       </c>
       <c r="DS21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DT21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DU21" t="n">
         <v>0</v>
@@ -11246,13 +11246,13 @@
         <v>0</v>
       </c>
       <c r="DX21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY21" t="n">
         <v>0</v>
       </c>
       <c r="DZ21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EA21" t="n">
         <v>0</v>
@@ -11270,13 +11270,13 @@
         <v>0</v>
       </c>
       <c r="EF21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG21" t="n">
         <v>0</v>
       </c>
       <c r="EH21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EI21" t="n">
         <v>0</v>
@@ -11288,7 +11288,7 @@
         <v>0</v>
       </c>
       <c r="EL21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EM21" t="n">
         <v>0</v>
@@ -11306,13 +11306,13 @@
         <v>0</v>
       </c>
       <c r="ER21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ES21" t="n">
         <v>0</v>
       </c>
       <c r="ET21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EU21" t="n">
         <v>0</v>
@@ -11330,13 +11330,13 @@
         <v>0</v>
       </c>
       <c r="EZ21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FA21" t="n">
         <v>0</v>
       </c>
       <c r="FB21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FC21" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>0</v>
       </c>
       <c r="FO21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FP21" t="n">
         <v>0</v>
@@ -11384,7 +11384,7 @@
         <v>0</v>
       </c>
       <c r="FR21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FS21" t="n">
         <v>0</v>
@@ -11402,13 +11402,13 @@
         <v>0</v>
       </c>
       <c r="FX21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FY21" t="n">
         <v>0</v>
       </c>
       <c r="FZ21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GA21" t="n">
         <v>0</v>
@@ -11458,10 +11458,10 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -11473,7 +11473,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -11488,16 +11488,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -11515,7 +11515,7 @@
         <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE22" t="n">
         <v>0</v>
@@ -11527,7 +11527,7 @@
         <v>0</v>
       </c>
       <c r="AH22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI22" t="n">
         <v>0</v>
@@ -11545,7 +11545,7 @@
         <v>0</v>
       </c>
       <c r="AN22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO22" t="n">
         <v>0</v>
@@ -11557,13 +11557,13 @@
         <v>0</v>
       </c>
       <c r="AR22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS22" t="n">
         <v>0</v>
       </c>
       <c r="AT22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU22" t="n">
         <v>0</v>
@@ -11572,7 +11572,7 @@
         <v>0</v>
       </c>
       <c r="AW22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX22" t="n">
         <v>0</v>
@@ -11587,7 +11587,7 @@
         <v>0</v>
       </c>
       <c r="BB22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC22" t="n">
         <v>0</v>
@@ -11599,7 +11599,7 @@
         <v>0</v>
       </c>
       <c r="BF22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG22" t="n">
         <v>0</v>
@@ -11611,13 +11611,13 @@
         <v>0</v>
       </c>
       <c r="BJ22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK22" t="n">
         <v>0</v>
       </c>
       <c r="BL22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM22" t="n">
         <v>0</v>
@@ -11629,7 +11629,7 @@
         <v>0</v>
       </c>
       <c r="BP22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ22" t="n">
         <v>0</v>
@@ -11641,7 +11641,7 @@
         <v>0</v>
       </c>
       <c r="BT22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU22" t="n">
         <v>0</v>
@@ -11659,7 +11659,7 @@
         <v>0</v>
       </c>
       <c r="BZ22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA22" t="n">
         <v>0</v>
@@ -11689,7 +11689,7 @@
         <v>0</v>
       </c>
       <c r="CJ22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK22" t="n">
         <v>0</v>
@@ -11719,13 +11719,13 @@
         <v>0</v>
       </c>
       <c r="CT22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU22" t="n">
         <v>0</v>
       </c>
       <c r="CV22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW22" t="n">
         <v>0</v>
@@ -11791,13 +11791,13 @@
         <v>0</v>
       </c>
       <c r="DR22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DS22" t="n">
         <v>0</v>
       </c>
       <c r="DT22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DU22" t="n">
         <v>0</v>
@@ -11824,7 +11824,7 @@
         <v>0</v>
       </c>
       <c r="EC22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ED22" t="n">
         <v>0</v>
@@ -11839,7 +11839,7 @@
         <v>0</v>
       </c>
       <c r="EH22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EI22" t="n">
         <v>0</v>
@@ -11887,7 +11887,7 @@
         <v>0</v>
       </c>
       <c r="EX22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY22" t="n">
         <v>0</v>
@@ -11899,7 +11899,7 @@
         <v>0</v>
       </c>
       <c r="FB22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FC22" t="n">
         <v>0</v>
@@ -11911,13 +11911,13 @@
         <v>0</v>
       </c>
       <c r="FF22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FG22" t="n">
         <v>0</v>
       </c>
       <c r="FH22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FI22" t="n">
         <v>0</v>
@@ -11935,13 +11935,13 @@
         <v>0</v>
       </c>
       <c r="FN22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FO22" t="n">
         <v>0</v>
       </c>
       <c r="FP22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FQ22" t="n">
         <v>0</v>
@@ -12000,7 +12000,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -12015,7 +12015,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -12024,7 +12024,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -12036,7 +12036,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -12063,7 +12063,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z23" t="n">
         <v>0</v>
@@ -12078,7 +12078,7 @@
         <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE23" t="n">
         <v>0</v>
@@ -12102,13 +12102,13 @@
         <v>0</v>
       </c>
       <c r="AL23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM23" t="n">
         <v>0</v>
       </c>
       <c r="AN23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO23" t="n">
         <v>0</v>
@@ -12174,7 +12174,7 @@
         <v>0</v>
       </c>
       <c r="BJ23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK23" t="n">
         <v>0</v>
@@ -12204,7 +12204,7 @@
         <v>0</v>
       </c>
       <c r="BT23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU23" t="n">
         <v>0</v>
@@ -12216,7 +12216,7 @@
         <v>0</v>
       </c>
       <c r="BX23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY23" t="n">
         <v>0</v>
@@ -12228,13 +12228,13 @@
         <v>0</v>
       </c>
       <c r="CB23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC23" t="n">
         <v>0</v>
       </c>
       <c r="CD23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE23" t="n">
         <v>0</v>
@@ -12255,7 +12255,7 @@
         <v>0</v>
       </c>
       <c r="CK23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL23" t="n">
         <v>0</v>
@@ -12264,7 +12264,7 @@
         <v>0</v>
       </c>
       <c r="CN23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO23" t="n">
         <v>0</v>
@@ -12276,7 +12276,7 @@
         <v>0</v>
       </c>
       <c r="CR23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS23" t="n">
         <v>0</v>
@@ -12306,7 +12306,7 @@
         <v>0</v>
       </c>
       <c r="DB23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DC23" t="n">
         <v>0</v>
@@ -12318,7 +12318,7 @@
         <v>0</v>
       </c>
       <c r="DF23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DG23" t="n">
         <v>0</v>
@@ -12330,13 +12330,13 @@
         <v>0</v>
       </c>
       <c r="DJ23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DK23" t="n">
         <v>0</v>
       </c>
       <c r="DL23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DM23" t="n">
         <v>0</v>
@@ -12360,13 +12360,13 @@
         <v>0</v>
       </c>
       <c r="DT23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DU23" t="n">
         <v>0</v>
       </c>
       <c r="DV23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DW23" t="n">
         <v>0</v>
@@ -12384,13 +12384,13 @@
         <v>0</v>
       </c>
       <c r="EB23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EC23" t="n">
         <v>0</v>
       </c>
       <c r="ED23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EE23" t="n">
         <v>0</v>
@@ -12426,7 +12426,7 @@
         <v>0</v>
       </c>
       <c r="EP23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ23" t="n">
         <v>0</v>
@@ -12438,7 +12438,7 @@
         <v>0</v>
       </c>
       <c r="ET23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EU23" t="n">
         <v>0</v>
@@ -12456,7 +12456,7 @@
         <v>0</v>
       </c>
       <c r="EZ23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FA23" t="n">
         <v>0</v>
@@ -12504,13 +12504,13 @@
         <v>0</v>
       </c>
       <c r="FP23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FQ23" t="n">
         <v>0</v>
       </c>
       <c r="FR23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FS23" t="n">
         <v>0</v>
@@ -12528,13 +12528,13 @@
         <v>0</v>
       </c>
       <c r="FX23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FY23" t="n">
         <v>0</v>
       </c>
       <c r="FZ23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GA23" t="n">
         <v>0</v>
@@ -12566,10 +12566,10 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -12587,13 +12587,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -12635,19 +12635,19 @@
         <v>0</v>
       </c>
       <c r="AB24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
       </c>
       <c r="AD24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE24" t="n">
         <v>0</v>
       </c>
       <c r="AF24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG24" t="n">
         <v>0</v>
@@ -12677,13 +12677,13 @@
         <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ24" t="n">
         <v>0</v>
       </c>
       <c r="AR24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS24" t="n">
         <v>0</v>
@@ -12701,13 +12701,13 @@
         <v>0</v>
       </c>
       <c r="AX24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY24" t="n">
         <v>0</v>
       </c>
       <c r="AZ24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA24" t="n">
         <v>0</v>
@@ -12719,13 +12719,13 @@
         <v>0</v>
       </c>
       <c r="BD24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE24" t="n">
         <v>0</v>
       </c>
       <c r="BF24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG24" t="n">
         <v>0</v>
@@ -12734,7 +12734,7 @@
         <v>0</v>
       </c>
       <c r="BI24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ24" t="n">
         <v>0</v>
@@ -12743,7 +12743,7 @@
         <v>0</v>
       </c>
       <c r="BL24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM24" t="n">
         <v>0</v>
@@ -12767,13 +12767,13 @@
         <v>0</v>
       </c>
       <c r="BT24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU24" t="n">
         <v>0</v>
       </c>
       <c r="BV24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW24" t="n">
         <v>0</v>
@@ -12791,13 +12791,13 @@
         <v>0</v>
       </c>
       <c r="CB24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC24" t="n">
         <v>0</v>
       </c>
       <c r="CD24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE24" t="n">
         <v>0</v>
@@ -12845,13 +12845,13 @@
         <v>0</v>
       </c>
       <c r="CT24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU24" t="n">
         <v>0</v>
       </c>
       <c r="CV24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW24" t="n">
         <v>0</v>
@@ -12863,7 +12863,7 @@
         <v>0</v>
       </c>
       <c r="CZ24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DA24" t="n">
         <v>0</v>
@@ -12875,10 +12875,10 @@
         <v>0</v>
       </c>
       <c r="DD24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DE24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF24" t="n">
         <v>0</v>
@@ -12953,7 +12953,7 @@
         <v>0</v>
       </c>
       <c r="ED24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EE24" t="n">
         <v>0</v>
@@ -12971,7 +12971,7 @@
         <v>0</v>
       </c>
       <c r="EJ24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK24" t="n">
         <v>0</v>
@@ -12980,10 +12980,10 @@
         <v>0</v>
       </c>
       <c r="EM24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EN24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EO24" t="n">
         <v>0</v>
@@ -12992,10 +12992,10 @@
         <v>0</v>
       </c>
       <c r="EQ24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ER24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ES24" t="n">
         <v>0</v>
@@ -13019,7 +13019,7 @@
         <v>0</v>
       </c>
       <c r="EZ24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FA24" t="n">
         <v>0</v>
@@ -13043,7 +13043,7 @@
         <v>0</v>
       </c>
       <c r="FH24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FI24" t="n">
         <v>0</v>
@@ -13079,7 +13079,7 @@
         <v>0</v>
       </c>
       <c r="FT24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FU24" t="n">
         <v>0</v>
@@ -13091,13 +13091,13 @@
         <v>0</v>
       </c>
       <c r="FX24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FY24" t="n">
         <v>0</v>
       </c>
       <c r="FZ24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GA24" t="n">
         <v>0</v>
@@ -13112,7 +13112,7 @@
         <v>0</v>
       </c>
       <c r="GE24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -13132,10 +13132,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -13159,10 +13159,10 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -13174,13 +13174,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -13216,13 +13216,13 @@
         <v>0</v>
       </c>
       <c r="AH25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI25" t="n">
         <v>0</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK25" t="n">
         <v>0</v>
@@ -13240,13 +13240,13 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ25" t="n">
         <v>0</v>
       </c>
       <c r="AR25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS25" t="n">
         <v>0</v>
@@ -13294,13 +13294,13 @@
         <v>0</v>
       </c>
       <c r="BH25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI25" t="n">
         <v>0</v>
       </c>
       <c r="BJ25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK25" t="n">
         <v>0</v>
@@ -13324,13 +13324,13 @@
         <v>0</v>
       </c>
       <c r="BR25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS25" t="n">
         <v>0</v>
       </c>
       <c r="BT25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU25" t="n">
         <v>0</v>
@@ -13348,7 +13348,7 @@
         <v>0</v>
       </c>
       <c r="BZ25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA25" t="n">
         <v>0</v>
@@ -13360,7 +13360,7 @@
         <v>0</v>
       </c>
       <c r="CD25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE25" t="n">
         <v>0</v>
@@ -13378,7 +13378,7 @@
         <v>0</v>
       </c>
       <c r="CJ25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK25" t="n">
         <v>0</v>
@@ -13390,13 +13390,13 @@
         <v>0</v>
       </c>
       <c r="CN25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO25" t="n">
         <v>0</v>
       </c>
       <c r="CP25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ25" t="n">
         <v>0</v>
@@ -13444,7 +13444,7 @@
         <v>0</v>
       </c>
       <c r="DF25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DG25" t="n">
         <v>0</v>
@@ -13468,7 +13468,7 @@
         <v>0</v>
       </c>
       <c r="DN25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DO25" t="n">
         <v>0</v>
@@ -13477,7 +13477,7 @@
         <v>0</v>
       </c>
       <c r="DQ25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DR25" t="n">
         <v>0</v>
@@ -13492,13 +13492,13 @@
         <v>0</v>
       </c>
       <c r="DV25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DW25" t="n">
         <v>0</v>
       </c>
       <c r="DX25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DY25" t="n">
         <v>0</v>
@@ -13534,7 +13534,7 @@
         <v>0</v>
       </c>
       <c r="EJ25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EK25" t="n">
         <v>0</v>
@@ -13546,7 +13546,7 @@
         <v>0</v>
       </c>
       <c r="EN25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EO25" t="n">
         <v>0</v>
@@ -13564,13 +13564,13 @@
         <v>0</v>
       </c>
       <c r="ET25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EU25" t="n">
         <v>0</v>
       </c>
       <c r="EV25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EW25" t="n">
         <v>0</v>
@@ -13588,7 +13588,7 @@
         <v>0</v>
       </c>
       <c r="FB25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FC25" t="n">
         <v>0</v>
@@ -13606,7 +13606,7 @@
         <v>0</v>
       </c>
       <c r="FH25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FI25" t="n">
         <v>0</v>
@@ -13618,7 +13618,7 @@
         <v>0</v>
       </c>
       <c r="FL25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FM25" t="n">
         <v>0</v>
@@ -13636,7 +13636,7 @@
         <v>0</v>
       </c>
       <c r="FR25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FS25" t="n">
         <v>0</v>
@@ -13648,7 +13648,7 @@
         <v>0</v>
       </c>
       <c r="FV25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FW25" t="n">
         <v>0</v>
@@ -13695,13 +13695,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -13719,7 +13719,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -13731,13 +13731,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -13761,7 +13761,7 @@
         <v>0</v>
       </c>
       <c r="AB26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC26" t="n">
         <v>0</v>
@@ -13776,7 +13776,7 @@
         <v>0</v>
       </c>
       <c r="AG26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH26" t="n">
         <v>0</v>
@@ -13785,7 +13785,7 @@
         <v>0</v>
       </c>
       <c r="AJ26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK26" t="n">
         <v>0</v>
@@ -13803,7 +13803,7 @@
         <v>0</v>
       </c>
       <c r="AP26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ26" t="n">
         <v>0</v>
@@ -13815,7 +13815,7 @@
         <v>0</v>
       </c>
       <c r="AT26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU26" t="n">
         <v>0</v>
@@ -13845,7 +13845,7 @@
         <v>0</v>
       </c>
       <c r="BD26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE26" t="n">
         <v>0</v>
@@ -13857,7 +13857,7 @@
         <v>0</v>
       </c>
       <c r="BH26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI26" t="n">
         <v>0</v>
@@ -13869,7 +13869,7 @@
         <v>0</v>
       </c>
       <c r="BL26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM26" t="n">
         <v>0</v>
@@ -13881,7 +13881,7 @@
         <v>0</v>
       </c>
       <c r="BP26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ26" t="n">
         <v>0</v>
@@ -13893,7 +13893,7 @@
         <v>0</v>
       </c>
       <c r="BT26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU26" t="n">
         <v>0</v>
@@ -13905,7 +13905,7 @@
         <v>0</v>
       </c>
       <c r="BX26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY26" t="n">
         <v>0</v>
@@ -13917,7 +13917,7 @@
         <v>0</v>
       </c>
       <c r="CB26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC26" t="n">
         <v>0</v>
@@ -13941,7 +13941,7 @@
         <v>0</v>
       </c>
       <c r="CJ26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK26" t="n">
         <v>0</v>
@@ -13959,13 +13959,13 @@
         <v>0</v>
       </c>
       <c r="CP26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ26" t="n">
         <v>0</v>
       </c>
       <c r="CR26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS26" t="n">
         <v>0</v>
@@ -13983,7 +13983,7 @@
         <v>0</v>
       </c>
       <c r="CX26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY26" t="n">
         <v>0</v>
@@ -14007,13 +14007,13 @@
         <v>0</v>
       </c>
       <c r="DF26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DG26" t="n">
         <v>0</v>
       </c>
       <c r="DH26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DI26" t="n">
         <v>0</v>
@@ -14025,13 +14025,13 @@
         <v>0</v>
       </c>
       <c r="DL26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DM26" t="n">
         <v>0</v>
       </c>
       <c r="DN26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DO26" t="n">
         <v>0</v>
@@ -14043,7 +14043,7 @@
         <v>0</v>
       </c>
       <c r="DR26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DS26" t="n">
         <v>0</v>
@@ -14055,7 +14055,7 @@
         <v>0</v>
       </c>
       <c r="DV26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DW26" t="n">
         <v>0</v>
@@ -14076,7 +14076,7 @@
         <v>0</v>
       </c>
       <c r="EC26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ED26" t="n">
         <v>0</v>
@@ -14085,7 +14085,7 @@
         <v>0</v>
       </c>
       <c r="EF26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EG26" t="n">
         <v>0</v>
@@ -14103,13 +14103,13 @@
         <v>0</v>
       </c>
       <c r="EL26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EM26" t="n">
         <v>0</v>
       </c>
       <c r="EN26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EO26" t="n">
         <v>0</v>
@@ -14127,13 +14127,13 @@
         <v>0</v>
       </c>
       <c r="ET26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EU26" t="n">
         <v>0</v>
       </c>
       <c r="EV26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EW26" t="n">
         <v>0</v>
@@ -14175,13 +14175,13 @@
         <v>0</v>
       </c>
       <c r="FJ26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FK26" t="n">
         <v>0</v>
       </c>
       <c r="FL26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FM26" t="n">
         <v>0</v>
@@ -14199,13 +14199,13 @@
         <v>0</v>
       </c>
       <c r="FR26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FS26" t="n">
         <v>0</v>
       </c>
       <c r="FT26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FU26" t="n">
         <v>0</v>
@@ -14229,7 +14229,7 @@
         <v>0</v>
       </c>
       <c r="GB26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GC26" t="n">
         <v>0</v>
@@ -14246,7 +14246,7 @@
         <v>21</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -14255,7 +14255,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -14276,13 +14276,13 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -14300,13 +14300,13 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -14324,13 +14324,13 @@
         <v>0</v>
       </c>
       <c r="AB27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC27" t="n">
         <v>0</v>
       </c>
       <c r="AD27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE27" t="n">
         <v>0</v>
@@ -14348,13 +14348,13 @@
         <v>0</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK27" t="n">
         <v>0</v>
       </c>
       <c r="AL27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM27" t="n">
         <v>0</v>
@@ -14372,13 +14372,13 @@
         <v>0</v>
       </c>
       <c r="AR27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS27" t="n">
         <v>0</v>
       </c>
       <c r="AT27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU27" t="n">
         <v>0</v>
@@ -14402,7 +14402,7 @@
         <v>0</v>
       </c>
       <c r="BB27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC27" t="n">
         <v>0</v>
@@ -14414,7 +14414,7 @@
         <v>0</v>
       </c>
       <c r="BF27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG27" t="n">
         <v>0</v>
@@ -14441,10 +14441,10 @@
         <v>0</v>
       </c>
       <c r="BO27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ27" t="n">
         <v>0</v>
@@ -14462,13 +14462,13 @@
         <v>0</v>
       </c>
       <c r="BV27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW27" t="n">
         <v>0</v>
       </c>
       <c r="BX27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY27" t="n">
         <v>0</v>
@@ -14486,7 +14486,7 @@
         <v>0</v>
       </c>
       <c r="CD27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE27" t="n">
         <v>0</v>
@@ -14498,13 +14498,13 @@
         <v>0</v>
       </c>
       <c r="CH27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI27" t="n">
         <v>0</v>
       </c>
       <c r="CJ27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK27" t="n">
         <v>0</v>
@@ -14516,7 +14516,7 @@
         <v>0</v>
       </c>
       <c r="CN27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO27" t="n">
         <v>0</v>
@@ -14528,7 +14528,7 @@
         <v>0</v>
       </c>
       <c r="CR27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS27" t="n">
         <v>0</v>
@@ -14552,13 +14552,13 @@
         <v>0</v>
       </c>
       <c r="CZ27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DA27" t="n">
         <v>0</v>
       </c>
       <c r="DB27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DC27" t="n">
         <v>0</v>
@@ -14570,13 +14570,13 @@
         <v>0</v>
       </c>
       <c r="DF27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DG27" t="n">
         <v>0</v>
       </c>
       <c r="DH27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DI27" t="n">
         <v>0</v>
@@ -14600,13 +14600,13 @@
         <v>0</v>
       </c>
       <c r="DP27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DQ27" t="n">
         <v>0</v>
       </c>
       <c r="DR27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DS27" t="n">
         <v>0</v>
@@ -14636,13 +14636,13 @@
         <v>0</v>
       </c>
       <c r="EB27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EC27" t="n">
         <v>0</v>
       </c>
       <c r="ED27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EE27" t="n">
         <v>0</v>
@@ -14672,7 +14672,7 @@
         <v>0</v>
       </c>
       <c r="EN27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EO27" t="n">
         <v>0</v>
@@ -14720,13 +14720,13 @@
         <v>0</v>
       </c>
       <c r="FD27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FE27" t="n">
         <v>0</v>
       </c>
       <c r="FF27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FG27" t="n">
         <v>0</v>
@@ -14768,13 +14768,13 @@
         <v>0</v>
       </c>
       <c r="FT27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FU27" t="n">
         <v>0</v>
       </c>
       <c r="FV27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FW27" t="n">
         <v>0</v>
@@ -14786,7 +14786,7 @@
         <v>0</v>
       </c>
       <c r="FZ27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GA27" t="n">
         <v>0</v>
@@ -14798,7 +14798,7 @@
         <v>0</v>
       </c>
       <c r="GD27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GE27" t="n">
         <v>0</v>
@@ -14809,7 +14809,7 @@
         <v>22</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -14818,7 +14818,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -14833,13 +14833,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -14857,7 +14857,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -14869,7 +14869,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -14881,13 +14881,13 @@
         <v>0</v>
       </c>
       <c r="Z28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA28" t="n">
         <v>0</v>
       </c>
       <c r="AB28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC28" t="n">
         <v>0</v>
@@ -14929,7 +14929,7 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ28" t="n">
         <v>0</v>
@@ -14953,7 +14953,7 @@
         <v>0</v>
       </c>
       <c r="AX28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY28" t="n">
         <v>0</v>
@@ -14983,13 +14983,13 @@
         <v>0</v>
       </c>
       <c r="BH28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI28" t="n">
         <v>0</v>
       </c>
       <c r="BJ28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK28" t="n">
         <v>0</v>
@@ -15007,13 +15007,13 @@
         <v>0</v>
       </c>
       <c r="BP28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ28" t="n">
         <v>0</v>
       </c>
       <c r="BR28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS28" t="n">
         <v>0</v>
@@ -15085,10 +15085,10 @@
         <v>0</v>
       </c>
       <c r="CP28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR28" t="n">
         <v>0</v>
@@ -15151,13 +15151,13 @@
         <v>0</v>
       </c>
       <c r="DL28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DM28" t="n">
         <v>0</v>
       </c>
       <c r="DN28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DO28" t="n">
         <v>0</v>
@@ -15217,10 +15217,10 @@
         <v>0</v>
       </c>
       <c r="EH28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EI28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ28" t="n">
         <v>0</v>
@@ -15241,7 +15241,7 @@
         <v>0</v>
       </c>
       <c r="EP28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ28" t="n">
         <v>0</v>
@@ -15259,7 +15259,7 @@
         <v>0</v>
       </c>
       <c r="EV28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EW28" t="n">
         <v>0</v>
@@ -15271,13 +15271,13 @@
         <v>0</v>
       </c>
       <c r="EZ28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FA28" t="n">
         <v>0</v>
       </c>
       <c r="FB28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FC28" t="n">
         <v>0</v>
@@ -15286,7 +15286,7 @@
         <v>0</v>
       </c>
       <c r="FE28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FF28" t="n">
         <v>0</v>
@@ -15301,7 +15301,7 @@
         <v>0</v>
       </c>
       <c r="FJ28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FK28" t="n">
         <v>0</v>
@@ -15325,7 +15325,7 @@
         <v>0</v>
       </c>
       <c r="FR28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FS28" t="n">
         <v>0</v>
@@ -15337,7 +15337,7 @@
         <v>0</v>
       </c>
       <c r="FV28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FW28" t="n">
         <v>0</v>
@@ -15349,7 +15349,7 @@
         <v>0</v>
       </c>
       <c r="FZ28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GA28" t="n">
         <v>0</v>
@@ -15361,7 +15361,7 @@
         <v>0</v>
       </c>
       <c r="GD28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GE28" t="n">
         <v>0</v>
@@ -15372,7 +15372,7 @@
         <v>23</v>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -15411,16 +15411,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -15438,7 +15438,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -15462,13 +15462,13 @@
         <v>0</v>
       </c>
       <c r="AF29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG29" t="n">
         <v>0</v>
       </c>
       <c r="AH29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI29" t="n">
         <v>0</v>
@@ -15483,7 +15483,7 @@
         <v>0</v>
       </c>
       <c r="AM29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN29" t="n">
         <v>0</v>
@@ -15522,7 +15522,7 @@
         <v>0</v>
       </c>
       <c r="AZ29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA29" t="n">
         <v>0</v>
@@ -15534,13 +15534,13 @@
         <v>0</v>
       </c>
       <c r="BD29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE29" t="n">
         <v>0</v>
       </c>
       <c r="BF29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG29" t="n">
         <v>0</v>
@@ -15558,7 +15558,7 @@
         <v>0</v>
       </c>
       <c r="BL29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM29" t="n">
         <v>0</v>
@@ -15582,7 +15582,7 @@
         <v>0</v>
       </c>
       <c r="BT29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU29" t="n">
         <v>0</v>
@@ -15630,19 +15630,19 @@
         <v>0</v>
       </c>
       <c r="CJ29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK29" t="n">
         <v>0</v>
       </c>
       <c r="CL29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM29" t="n">
         <v>0</v>
       </c>
       <c r="CN29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO29" t="n">
         <v>0</v>
@@ -15660,7 +15660,7 @@
         <v>0</v>
       </c>
       <c r="CT29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU29" t="n">
         <v>0</v>
@@ -15672,7 +15672,7 @@
         <v>0</v>
       </c>
       <c r="CX29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CY29" t="n">
         <v>0</v>
@@ -15684,7 +15684,7 @@
         <v>0</v>
       </c>
       <c r="DB29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DC29" t="n">
         <v>0</v>
@@ -15696,7 +15696,7 @@
         <v>0</v>
       </c>
       <c r="DF29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DG29" t="n">
         <v>0</v>
@@ -15708,7 +15708,7 @@
         <v>0</v>
       </c>
       <c r="DJ29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DK29" t="n">
         <v>0</v>
@@ -15726,7 +15726,7 @@
         <v>0</v>
       </c>
       <c r="DP29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DQ29" t="n">
         <v>0</v>
@@ -15738,7 +15738,7 @@
         <v>0</v>
       </c>
       <c r="DT29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DU29" t="n">
         <v>0</v>
@@ -15756,13 +15756,13 @@
         <v>0</v>
       </c>
       <c r="DZ29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EA29" t="n">
         <v>0</v>
       </c>
       <c r="EB29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EC29" t="n">
         <v>0</v>
@@ -15780,7 +15780,7 @@
         <v>0</v>
       </c>
       <c r="EH29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EI29" t="n">
         <v>0</v>
@@ -15792,7 +15792,7 @@
         <v>0</v>
       </c>
       <c r="EL29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EM29" t="n">
         <v>0</v>
@@ -15804,7 +15804,7 @@
         <v>0</v>
       </c>
       <c r="EP29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ29" t="n">
         <v>0</v>
@@ -15822,7 +15822,7 @@
         <v>0</v>
       </c>
       <c r="EV29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EW29" t="n">
         <v>0</v>
@@ -15840,7 +15840,7 @@
         <v>0</v>
       </c>
       <c r="FB29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FC29" t="n">
         <v>0</v>
@@ -15852,13 +15852,13 @@
         <v>0</v>
       </c>
       <c r="FF29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FG29" t="n">
         <v>0</v>
       </c>
       <c r="FH29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FI29" t="n">
         <v>0</v>
@@ -15876,7 +15876,7 @@
         <v>0</v>
       </c>
       <c r="FN29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FO29" t="n">
         <v>0</v>
@@ -15894,7 +15894,7 @@
         <v>0</v>
       </c>
       <c r="FT29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FU29" t="n">
         <v>0</v>
@@ -15906,7 +15906,7 @@
         <v>0</v>
       </c>
       <c r="FX29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FY29" t="n">
         <v>0</v>
@@ -15918,7 +15918,7 @@
         <v>0</v>
       </c>
       <c r="GB29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GC29" t="n">
         <v>0</v>
@@ -15935,7 +15935,7 @@
         <v>24</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -15959,7 +15959,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -15971,13 +15971,13 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -15989,7 +15989,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -16001,7 +16001,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -16019,13 +16019,13 @@
         <v>0</v>
       </c>
       <c r="AD30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE30" t="n">
         <v>0</v>
       </c>
       <c r="AF30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG30" t="n">
         <v>0</v>
@@ -16049,13 +16049,13 @@
         <v>0</v>
       </c>
       <c r="AN30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO30" t="n">
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ30" t="n">
         <v>0</v>
@@ -16067,7 +16067,7 @@
         <v>0</v>
       </c>
       <c r="AT30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU30" t="n">
         <v>0</v>
@@ -16079,13 +16079,13 @@
         <v>0</v>
       </c>
       <c r="AX30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY30" t="n">
         <v>0</v>
       </c>
       <c r="AZ30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA30" t="n">
         <v>0</v>
@@ -16094,10 +16094,10 @@
         <v>0</v>
       </c>
       <c r="BC30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE30" t="n">
         <v>0</v>
@@ -16133,7 +16133,7 @@
         <v>0</v>
       </c>
       <c r="BP30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ30" t="n">
         <v>0</v>
@@ -16145,7 +16145,7 @@
         <v>0</v>
       </c>
       <c r="BT30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU30" t="n">
         <v>0</v>
@@ -16163,7 +16163,7 @@
         <v>0</v>
       </c>
       <c r="BZ30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA30" t="n">
         <v>0</v>
@@ -16175,7 +16175,7 @@
         <v>0</v>
       </c>
       <c r="CD30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE30" t="n">
         <v>0</v>
@@ -16193,19 +16193,19 @@
         <v>0</v>
       </c>
       <c r="CJ30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK30" t="n">
         <v>0</v>
       </c>
       <c r="CL30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM30" t="n">
         <v>0</v>
       </c>
       <c r="CN30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO30" t="n">
         <v>0</v>
@@ -16295,7 +16295,7 @@
         <v>0</v>
       </c>
       <c r="DR30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DS30" t="n">
         <v>0</v>
@@ -16340,10 +16340,10 @@
         <v>0</v>
       </c>
       <c r="EG30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EI30" t="n">
         <v>0</v>
@@ -16361,13 +16361,13 @@
         <v>0</v>
       </c>
       <c r="EN30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EO30" t="n">
         <v>0</v>
       </c>
       <c r="EP30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ30" t="n">
         <v>0</v>
@@ -16397,7 +16397,7 @@
         <v>0</v>
       </c>
       <c r="EZ30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FA30" t="n">
         <v>0</v>
@@ -16421,13 +16421,13 @@
         <v>0</v>
       </c>
       <c r="FH30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FI30" t="n">
         <v>0</v>
       </c>
       <c r="FJ30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FK30" t="n">
         <v>0</v>
@@ -16439,7 +16439,7 @@
         <v>0</v>
       </c>
       <c r="FN30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FO30" t="n">
         <v>0</v>
@@ -16451,7 +16451,7 @@
         <v>0</v>
       </c>
       <c r="FR30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FS30" t="n">
         <v>0</v>
@@ -16469,7 +16469,7 @@
         <v>0</v>
       </c>
       <c r="FX30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FY30" t="n">
         <v>0</v>
@@ -16478,10 +16478,10 @@
         <v>0</v>
       </c>
       <c r="GA30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GB30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GC30" t="n">
         <v>0</v>
@@ -16498,7 +16498,7 @@
         <v>25</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -16510,7 +16510,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -16528,7 +16528,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -16540,7 +16540,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -16552,7 +16552,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -16573,16 +16573,16 @@
         <v>0</v>
       </c>
       <c r="AA31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC31" t="n">
         <v>0</v>
       </c>
       <c r="AD31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE31" t="n">
         <v>0</v>
@@ -16594,7 +16594,7 @@
         <v>0</v>
       </c>
       <c r="AH31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI31" t="n">
         <v>0</v>
@@ -16639,7 +16639,7 @@
         <v>0</v>
       </c>
       <c r="AW31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX31" t="n">
         <v>0</v>
@@ -16678,7 +16678,7 @@
         <v>0</v>
       </c>
       <c r="BJ31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK31" t="n">
         <v>0</v>
@@ -16690,7 +16690,7 @@
         <v>0</v>
       </c>
       <c r="BN31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO31" t="n">
         <v>0</v>
@@ -16708,13 +16708,13 @@
         <v>0</v>
       </c>
       <c r="BT31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU31" t="n">
         <v>0</v>
       </c>
       <c r="BV31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW31" t="n">
         <v>0</v>
@@ -16738,19 +16738,19 @@
         <v>0</v>
       </c>
       <c r="CD31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE31" t="n">
         <v>0</v>
       </c>
       <c r="CF31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG31" t="n">
         <v>0</v>
       </c>
       <c r="CH31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI31" t="n">
         <v>0</v>
@@ -16780,7 +16780,7 @@
         <v>0</v>
       </c>
       <c r="CR31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS31" t="n">
         <v>0</v>
@@ -16789,10 +16789,10 @@
         <v>0</v>
       </c>
       <c r="CU31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW31" t="n">
         <v>0</v>
@@ -16807,7 +16807,7 @@
         <v>0</v>
       </c>
       <c r="DA31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DB31" t="n">
         <v>1</v>
@@ -16822,7 +16822,7 @@
         <v>0</v>
       </c>
       <c r="DF31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DG31" t="n">
         <v>0</v>
@@ -16834,7 +16834,7 @@
         <v>0</v>
       </c>
       <c r="DJ31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DK31" t="n">
         <v>0</v>
@@ -16852,13 +16852,13 @@
         <v>0</v>
       </c>
       <c r="DP31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DQ31" t="n">
         <v>0</v>
       </c>
       <c r="DR31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DS31" t="n">
         <v>0</v>
@@ -16894,7 +16894,7 @@
         <v>0</v>
       </c>
       <c r="ED31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EE31" t="n">
         <v>0</v>
@@ -16906,7 +16906,7 @@
         <v>0</v>
       </c>
       <c r="EH31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EI31" t="n">
         <v>0</v>
@@ -16924,13 +16924,13 @@
         <v>0</v>
       </c>
       <c r="EN31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EO31" t="n">
         <v>0</v>
       </c>
       <c r="EP31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ31" t="n">
         <v>0</v>
@@ -16969,13 +16969,13 @@
         <v>0</v>
       </c>
       <c r="FC31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FD31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FE31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FF31" t="n">
         <v>0</v>
@@ -17044,13 +17044,13 @@
         <v>0</v>
       </c>
       <c r="GB31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GC31" t="n">
         <v>0</v>
       </c>
       <c r="GD31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GE31" t="n">
         <v>0</v>
@@ -17067,7 +17067,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -17088,10 +17088,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -17109,13 +17109,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -17133,13 +17133,13 @@
         <v>0</v>
       </c>
       <c r="Z32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA32" t="n">
         <v>0</v>
       </c>
       <c r="AB32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC32" t="n">
         <v>0</v>
@@ -17187,13 +17187,13 @@
         <v>0</v>
       </c>
       <c r="AR32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS32" t="n">
         <v>0</v>
       </c>
       <c r="AT32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU32" t="n">
         <v>0</v>
@@ -17205,13 +17205,13 @@
         <v>0</v>
       </c>
       <c r="AX32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY32" t="n">
         <v>0</v>
       </c>
       <c r="AZ32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA32" t="n">
         <v>0</v>
@@ -17235,13 +17235,13 @@
         <v>0</v>
       </c>
       <c r="BH32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI32" t="n">
         <v>0</v>
       </c>
       <c r="BJ32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK32" t="n">
         <v>0</v>
@@ -17265,7 +17265,7 @@
         <v>0</v>
       </c>
       <c r="BR32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS32" t="n">
         <v>0</v>
@@ -17277,7 +17277,7 @@
         <v>0</v>
       </c>
       <c r="BV32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW32" t="n">
         <v>0</v>
@@ -17289,13 +17289,13 @@
         <v>0</v>
       </c>
       <c r="BZ32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA32" t="n">
         <v>0</v>
       </c>
       <c r="CB32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC32" t="n">
         <v>0</v>
@@ -17313,7 +17313,7 @@
         <v>0</v>
       </c>
       <c r="CH32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI32" t="n">
         <v>0</v>
@@ -17325,13 +17325,13 @@
         <v>0</v>
       </c>
       <c r="CL32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM32" t="n">
         <v>0</v>
       </c>
       <c r="CN32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO32" t="n">
         <v>0</v>
@@ -17349,7 +17349,7 @@
         <v>0</v>
       </c>
       <c r="CT32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU32" t="n">
         <v>0</v>
@@ -17361,7 +17361,7 @@
         <v>0</v>
       </c>
       <c r="CX32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CY32" t="n">
         <v>0</v>
@@ -17373,7 +17373,7 @@
         <v>0</v>
       </c>
       <c r="DB32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DC32" t="n">
         <v>0</v>
@@ -17391,7 +17391,7 @@
         <v>0</v>
       </c>
       <c r="DH32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DI32" t="n">
         <v>0</v>
@@ -17403,7 +17403,7 @@
         <v>0</v>
       </c>
       <c r="DL32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DM32" t="n">
         <v>0</v>
@@ -17415,7 +17415,7 @@
         <v>0</v>
       </c>
       <c r="DP32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DQ32" t="n">
         <v>0</v>
@@ -17433,7 +17433,7 @@
         <v>0</v>
       </c>
       <c r="DV32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DW32" t="n">
         <v>0</v>
@@ -17445,7 +17445,7 @@
         <v>0</v>
       </c>
       <c r="DZ32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EA32" t="n">
         <v>0</v>
@@ -17457,7 +17457,7 @@
         <v>0</v>
       </c>
       <c r="ED32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EE32" t="n">
         <v>0</v>
@@ -17478,10 +17478,10 @@
         <v>0</v>
       </c>
       <c r="EK32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EL32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EM32" t="n">
         <v>0</v>
@@ -17499,13 +17499,13 @@
         <v>0</v>
       </c>
       <c r="ER32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ES32" t="n">
         <v>0</v>
       </c>
       <c r="ET32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EU32" t="n">
         <v>0</v>
@@ -17523,7 +17523,7 @@
         <v>0</v>
       </c>
       <c r="EZ32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FA32" t="n">
         <v>0</v>
@@ -17535,7 +17535,7 @@
         <v>0</v>
       </c>
       <c r="FD32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FE32" t="n">
         <v>0</v>
@@ -17559,13 +17559,13 @@
         <v>0</v>
       </c>
       <c r="FL32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FM32" t="n">
         <v>0</v>
       </c>
       <c r="FN32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FO32" t="n">
         <v>0</v>
@@ -17583,7 +17583,7 @@
         <v>0</v>
       </c>
       <c r="FT32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FU32" t="n">
         <v>0</v>
@@ -17607,13 +17607,13 @@
         <v>0</v>
       </c>
       <c r="GB32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GC32" t="n">
         <v>0</v>
       </c>
       <c r="GD32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GE32" t="n">
         <v>0</v>
@@ -17624,13 +17624,13 @@
         <v>27</v>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -17642,13 +17642,13 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -17666,13 +17666,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -17690,7 +17690,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -17720,7 +17720,7 @@
         <v>0</v>
       </c>
       <c r="AH33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI33" t="n">
         <v>0</v>
@@ -17732,7 +17732,7 @@
         <v>0</v>
       </c>
       <c r="AL33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM33" t="n">
         <v>0</v>
@@ -17744,7 +17744,7 @@
         <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ33" t="n">
         <v>0</v>
@@ -17753,7 +17753,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT33" t="n">
         <v>0</v>
@@ -17768,13 +17768,13 @@
         <v>0</v>
       </c>
       <c r="AX33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY33" t="n">
         <v>0</v>
       </c>
       <c r="AZ33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA33" t="n">
         <v>0</v>
@@ -17798,10 +17798,10 @@
         <v>0</v>
       </c>
       <c r="BH33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ33" t="n">
         <v>0</v>
@@ -17822,13 +17822,13 @@
         <v>0</v>
       </c>
       <c r="BP33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ33" t="n">
         <v>0</v>
       </c>
       <c r="BR33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS33" t="n">
         <v>0</v>
@@ -17840,7 +17840,7 @@
         <v>0</v>
       </c>
       <c r="BV33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW33" t="n">
         <v>0</v>
@@ -17930,13 +17930,13 @@
         <v>0</v>
       </c>
       <c r="CZ33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DA33" t="n">
         <v>0</v>
       </c>
       <c r="DB33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DC33" t="n">
         <v>0</v>
@@ -17954,13 +17954,13 @@
         <v>0</v>
       </c>
       <c r="DH33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DI33" t="n">
         <v>0</v>
       </c>
       <c r="DJ33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DK33" t="n">
         <v>0</v>
@@ -17978,7 +17978,7 @@
         <v>0</v>
       </c>
       <c r="DP33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DQ33" t="n">
         <v>0</v>
@@ -17990,7 +17990,7 @@
         <v>0</v>
       </c>
       <c r="DT33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DU33" t="n">
         <v>0</v>
@@ -18002,13 +18002,13 @@
         <v>0</v>
       </c>
       <c r="DX33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DY33" t="n">
         <v>0</v>
       </c>
       <c r="DZ33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EA33" t="n">
         <v>0</v>
@@ -18026,7 +18026,7 @@
         <v>0</v>
       </c>
       <c r="EF33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EG33" t="n">
         <v>0</v>
@@ -18044,7 +18044,7 @@
         <v>0</v>
       </c>
       <c r="EL33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EM33" t="n">
         <v>0</v>
@@ -18062,19 +18062,19 @@
         <v>0</v>
       </c>
       <c r="ER33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ES33" t="n">
         <v>0</v>
       </c>
       <c r="ET33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EU33" t="n">
         <v>0</v>
       </c>
       <c r="EV33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EW33" t="n">
         <v>0</v>
@@ -18098,13 +18098,13 @@
         <v>0</v>
       </c>
       <c r="FD33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FE33" t="n">
         <v>0</v>
       </c>
       <c r="FF33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FG33" t="n">
         <v>0</v>
@@ -18113,10 +18113,10 @@
         <v>0</v>
       </c>
       <c r="FI33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FJ33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FK33" t="n">
         <v>0</v>
@@ -18128,7 +18128,7 @@
         <v>0</v>
       </c>
       <c r="FN33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FO33" t="n">
         <v>0</v>
@@ -18140,13 +18140,13 @@
         <v>0</v>
       </c>
       <c r="FR33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FS33" t="n">
         <v>0</v>
       </c>
       <c r="FT33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FU33" t="n">
         <v>0</v>
@@ -18155,7 +18155,7 @@
         <v>0</v>
       </c>
       <c r="FW33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FX33" t="n">
         <v>0</v>
@@ -18176,7 +18176,7 @@
         <v>0</v>
       </c>
       <c r="GD33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GE33" t="n">
         <v>0</v>
@@ -18211,7 +18211,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -18232,16 +18232,16 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -18259,13 +18259,13 @@
         <v>0</v>
       </c>
       <c r="Z34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA34" t="n">
         <v>0</v>
       </c>
       <c r="AB34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC34" t="n">
         <v>0</v>
@@ -18283,7 +18283,7 @@
         <v>0</v>
       </c>
       <c r="AH34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI34" t="n">
         <v>0</v>
@@ -18295,7 +18295,7 @@
         <v>0</v>
       </c>
       <c r="AL34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM34" t="n">
         <v>0</v>
@@ -18307,7 +18307,7 @@
         <v>0</v>
       </c>
       <c r="AP34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ34" t="n">
         <v>0</v>
@@ -18325,13 +18325,13 @@
         <v>0</v>
       </c>
       <c r="AV34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW34" t="n">
         <v>0</v>
       </c>
       <c r="AX34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY34" t="n">
         <v>0</v>
@@ -18349,13 +18349,13 @@
         <v>0</v>
       </c>
       <c r="BD34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG34" t="n">
         <v>0</v>
@@ -18409,7 +18409,7 @@
         <v>0</v>
       </c>
       <c r="BX34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY34" t="n">
         <v>0</v>
@@ -18427,13 +18427,13 @@
         <v>0</v>
       </c>
       <c r="CD34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE34" t="n">
         <v>0</v>
       </c>
       <c r="CF34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG34" t="n">
         <v>0</v>
@@ -18451,7 +18451,7 @@
         <v>0</v>
       </c>
       <c r="CL34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM34" t="n">
         <v>0</v>
@@ -18463,7 +18463,7 @@
         <v>0</v>
       </c>
       <c r="CP34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ34" t="n">
         <v>0</v>
@@ -18487,7 +18487,7 @@
         <v>0</v>
       </c>
       <c r="CX34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY34" t="n">
         <v>0</v>
@@ -18529,13 +18529,13 @@
         <v>0</v>
       </c>
       <c r="DL34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DM34" t="n">
         <v>0</v>
       </c>
       <c r="DN34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DO34" t="n">
         <v>0</v>
@@ -18547,7 +18547,7 @@
         <v>0</v>
       </c>
       <c r="DR34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DS34" t="n">
         <v>0</v>
@@ -18559,7 +18559,7 @@
         <v>0</v>
       </c>
       <c r="DV34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DW34" t="n">
         <v>0</v>
@@ -18583,13 +18583,13 @@
         <v>0</v>
       </c>
       <c r="ED34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EE34" t="n">
         <v>0</v>
       </c>
       <c r="EF34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG34" t="n">
         <v>0</v>
@@ -18607,19 +18607,19 @@
         <v>0</v>
       </c>
       <c r="EL34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EM34" t="n">
         <v>0</v>
       </c>
       <c r="EN34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EO34" t="n">
         <v>0</v>
       </c>
       <c r="EP34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ34" t="n">
         <v>0</v>
@@ -18643,19 +18643,19 @@
         <v>0</v>
       </c>
       <c r="EX34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EY34" t="n">
         <v>0</v>
       </c>
       <c r="EZ34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FA34" t="n">
         <v>0</v>
       </c>
       <c r="FB34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FC34" t="n">
         <v>0</v>
@@ -18670,7 +18670,7 @@
         <v>0</v>
       </c>
       <c r="FG34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FH34" t="n">
         <v>0</v>
@@ -18679,7 +18679,7 @@
         <v>0</v>
       </c>
       <c r="FJ34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FK34" t="n">
         <v>0</v>
@@ -18697,19 +18697,19 @@
         <v>0</v>
       </c>
       <c r="FP34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FQ34" t="n">
         <v>0</v>
       </c>
       <c r="FR34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FS34" t="n">
         <v>0</v>
       </c>
       <c r="FT34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FU34" t="n">
         <v>0</v>
@@ -18727,13 +18727,13 @@
         <v>0</v>
       </c>
       <c r="FZ34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GA34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GB34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GC34" t="n">
         <v>0</v>
@@ -18762,13 +18762,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -18798,7 +18798,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -18822,7 +18822,7 @@
         <v>0</v>
       </c>
       <c r="Z35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA35" t="n">
         <v>0</v>
@@ -18840,13 +18840,13 @@
         <v>0</v>
       </c>
       <c r="AF35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG35" t="n">
         <v>0</v>
       </c>
       <c r="AH35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI35" t="n">
         <v>0</v>
@@ -18864,13 +18864,13 @@
         <v>0</v>
       </c>
       <c r="AN35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO35" t="n">
         <v>0</v>
       </c>
       <c r="AP35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ35" t="n">
         <v>0</v>
@@ -18888,7 +18888,7 @@
         <v>0</v>
       </c>
       <c r="AV35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW35" t="n">
         <v>0</v>
@@ -18900,7 +18900,7 @@
         <v>0</v>
       </c>
       <c r="AZ35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA35" t="n">
         <v>0</v>
@@ -18912,7 +18912,7 @@
         <v>0</v>
       </c>
       <c r="BD35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE35" t="n">
         <v>0</v>
@@ -18924,7 +18924,7 @@
         <v>0</v>
       </c>
       <c r="BH35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI35" t="n">
         <v>0</v>
@@ -18936,7 +18936,7 @@
         <v>0</v>
       </c>
       <c r="BL35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM35" t="n">
         <v>0</v>
@@ -18972,13 +18972,13 @@
         <v>0</v>
       </c>
       <c r="BX35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY35" t="n">
         <v>0</v>
       </c>
       <c r="BZ35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA35" t="n">
         <v>0</v>
@@ -18996,13 +18996,13 @@
         <v>0</v>
       </c>
       <c r="CF35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG35" t="n">
         <v>0</v>
       </c>
       <c r="CH35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI35" t="n">
         <v>0</v>
@@ -19020,13 +19020,13 @@
         <v>0</v>
       </c>
       <c r="CN35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO35" t="n">
         <v>0</v>
       </c>
       <c r="CP35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ35" t="n">
         <v>0</v>
@@ -19038,13 +19038,13 @@
         <v>0</v>
       </c>
       <c r="CT35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU35" t="n">
         <v>0</v>
       </c>
       <c r="CV35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW35" t="n">
         <v>0</v>
@@ -19152,7 +19152,7 @@
         <v>0</v>
       </c>
       <c r="EF35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EG35" t="n">
         <v>0</v>
@@ -19164,7 +19164,7 @@
         <v>0</v>
       </c>
       <c r="EJ35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EK35" t="n">
         <v>0</v>
@@ -19176,7 +19176,7 @@
         <v>0</v>
       </c>
       <c r="EN35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EO35" t="n">
         <v>0</v>
@@ -19188,7 +19188,7 @@
         <v>0</v>
       </c>
       <c r="ER35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ES35" t="n">
         <v>0</v>
@@ -19200,7 +19200,7 @@
         <v>0</v>
       </c>
       <c r="EV35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EW35" t="n">
         <v>0</v>
@@ -19212,7 +19212,7 @@
         <v>0</v>
       </c>
       <c r="EZ35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FA35" t="n">
         <v>0</v>
@@ -19224,7 +19224,7 @@
         <v>0</v>
       </c>
       <c r="FD35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FE35" t="n">
         <v>0</v>
@@ -19245,10 +19245,10 @@
         <v>0</v>
       </c>
       <c r="FK35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FL35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FM35" t="n">
         <v>0</v>
@@ -19266,7 +19266,7 @@
         <v>0</v>
       </c>
       <c r="FR35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FS35" t="n">
         <v>0</v>
